--- a/location_probabilities_vector.xlsx
+++ b/location_probabilities_vector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hreed\Documents\UCF\Projects\Hornet-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4706D7-0BBF-489B-A0F5-46F2B57F2B8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDB4FF4-A387-4F09-A5F1-53FD364BBD6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A798"/>
+  <dimension ref="A1:A775"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -403,3986 +405,3871 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.66939294147632811</v>
+        <v>0.84571406059301502</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.63824379605278914</v>
+        <v>0.86075126884593267</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.67031621476743986</v>
+        <v>0.84459728980747317</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.69220326466353521</v>
+        <v>0.80577127855975683</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.46157419868548372</v>
+        <v>0.47612026721837858</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.2237066152158419</v>
+        <v>0.67722064885953226</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2.8102837923591468E-3</v>
+        <v>0.68644139468329624</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0.39579138789004592</v>
+        <v>0.36962424189017612</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0.72121687999133854</v>
+        <v>0.77399674923736916</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0.42746514604660663</v>
+        <v>0.51082615163351641</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0.36004516590049113</v>
+        <v>0.161469776448672</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0.30875622166577738</v>
+        <v>0.58320644561162505</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2.0052298918215031E-2</v>
+        <v>0.66171291377955599</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0.69092517605786674</v>
+        <v>0.68454316095415813</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0.66602980923973321</v>
+        <v>0.82796527223554506</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0.66655066090626602</v>
+        <v>0.78999851743309879</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.20519124156808999</v>
+        <v>0.80672184358815913</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0.84875051223719244</v>
+        <v>0.78626556607306042</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0.63607129167654741</v>
+        <v>0.75655321892526917</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0.6591607862994604</v>
+        <v>0.67740297254582527</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>0.62307578898568439</v>
+        <v>0.33929890940476848</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>0.99998372773192368</v>
+        <v>0.65066835404220402</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0.84671617505672159</v>
+        <v>0.79449771947225112</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0.8457140605930149</v>
+        <v>0.76104026699708371</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>0.86075126884593267</v>
+        <v>0.82589147996123624</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>0.84459728980747317</v>
+        <v>0.51082615163351641</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>0.80577127855975683</v>
+        <v>0.35715789336736659</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>0.47612026721837858</v>
+        <v>0.75008710215992069</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>0.67722064885953226</v>
+        <v>2.805118518474992E-2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>0.68644139468329624</v>
+        <v>0.65107293800243315</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>0.36962424189017612</v>
+        <v>0.78150002422375242</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>0.77399674923736916</v>
+        <v>0.1241519277074464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>0.51082615163351641</v>
+        <v>0.76674669028793452</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>0.161469776448672</v>
+        <v>0.62098671027196695</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>0.58320644561162505</v>
+        <v>0.82574895710487473</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>0.66171291377955599</v>
+        <v>0.58226154038200129</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>0.68454316095415813</v>
+        <v>0.58256347682633236</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>0.82796527223554506</v>
+        <v>0.51852251962398022</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>0.78999851743309879</v>
+        <v>0.58062370346009684</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>0.80672184358815913</v>
+        <v>0.67774775984076197</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>0.78626556607306042</v>
+        <v>0.58168475524611263</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>0.75655321892526917</v>
+        <v>0.30587844463569419</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>0.67740297254582527</v>
+        <v>0.66038951713113814</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>0.33929890940476848</v>
+        <v>0.63099678654337743</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>0.65066835404220402</v>
+        <v>0.56635942883798385</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>0.79449771947225112</v>
+        <v>0.70013649360069596</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>0.76104026699708371</v>
+        <v>0.13684968764339489</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>0.82589147996123624</v>
+        <v>0.16956883234507661</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>0.51082615163351641</v>
+        <v>0.60280837296096457</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>0.35715789336736659</v>
+        <v>0.66952901184614122</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>0.75008710215992069</v>
+        <v>0.60708676837439635</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2.805118518474992E-2</v>
+        <v>0.37939759273943502</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>0.65107293800243315</v>
+        <v>0.48198919077216912</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>0.78150002422375242</v>
+        <v>0.47562096445245822</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>0.1241519277074464</v>
+        <v>0.64454781926156524</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>0.76674669028793452</v>
+        <v>0.72276181505170856</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>0.62098671027196695</v>
+        <v>0.22553280618129881</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>0.82574895710487473</v>
+        <v>0.59702744610993563</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>0.58226154038200129</v>
+        <v>0.67893530812761771</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>0.58256347682633236</v>
+        <v>0.65404730921807563</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>0.51852251962398022</v>
+        <v>0.1466890755621191</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>0.58062370346009684</v>
+        <v>0.58781659953351817</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>0.67774775984076197</v>
+        <v>0.8064657780024429</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>0.58168475524611263</v>
+        <v>0.62375680465921934</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>0.30587844463569419</v>
+        <v>0.58250631866401048</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>0.66038951713113814</v>
+        <v>0.72388669662843763</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>0.63099678654337743</v>
+        <v>0.42097053506046272</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>0.56635942883798385</v>
+        <v>0.2997986413731244</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>0.70013649360069596</v>
+        <v>0.4597351414778349</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>0.13684968764339489</v>
+        <v>0.76644893462876018</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>0.16956883234507661</v>
+        <v>0.60048778699613781</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>0.60280837296096457</v>
+        <v>0.84133741741053503</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>0.66952901184614122</v>
+        <v>0.58436820612504436</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>0.60708676837439635</v>
+        <v>0.65049916465311131</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>0.37939759273943502</v>
+        <v>0.63389262155585535</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>0.48198919077216912</v>
+        <v>0.18246876599407391</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>0.47562096445245822</v>
+        <v>0.66904758987787627</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>0.64454781926156524</v>
+        <v>0.64614288258803265</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>0.72276181505170856</v>
+        <v>0.5781720915427806</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>0.22553280618129881</v>
+        <v>0.59807473536976641</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>0.59702744610993563</v>
+        <v>0.80944010636491159</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>0.67893530812761771</v>
+        <v>0.80202169727856698</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>0.65404730921807563</v>
+        <v>0.69376716162995078</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>0.1466890755621191</v>
+        <v>0.45405422522659089</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>0.58781659953351817</v>
+        <v>0.18987828279372351</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>0.8064657780024429</v>
+        <v>0.56832247815513615</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>0.62375680465921934</v>
+        <v>0.59870812380341587</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>0.58250631866401048</v>
+        <v>0.66157831819477808</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>0.72388669662843763</v>
+        <v>0.85884552587311314</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>0.42097053506046272</v>
+        <v>0.65780858973172285</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>0.2997986413731244</v>
+        <v>0.71023022858306439</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>0.4597351414778349</v>
+        <v>0.6874947497223991</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>0.76644893462876018</v>
+        <v>0.72199770663276386</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>0.60048778699613781</v>
+        <v>0.58401465121977525</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>0.84133741741053503</v>
+        <v>0.80362285852291171</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>0.58436820612504436</v>
+        <v>0.67336286624307351</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>0.65049916465311131</v>
+        <v>0.59970287861305915</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>0.63389262155585535</v>
+        <v>0.68094728100349444</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>0.18246876599407391</v>
+        <v>0.47646280923965639</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>0.66904758987787627</v>
+        <v>0.5167240606728235</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>0.64614288258803265</v>
+        <v>0.51665346308271942</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>0.5781720915427806</v>
+        <v>0.79585059910953393</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>0.59807473536976641</v>
+        <v>0.66264833501744747</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>0.80944010636491159</v>
+        <v>0.42246048156713623</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>0.80202169727856698</v>
+        <v>0.84030016806249652</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>0.69376716162995078</v>
+        <v>0.69114274955159738</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>0.45405422522659089</v>
+        <v>0.1267320136216894</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>0.18987828279372351</v>
+        <v>0.69061795037300422</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>0.56832247815513615</v>
+        <v>0.65147516042472531</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>0.59870812380341587</v>
+        <v>0.65020066017219902</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>0.66157831819477808</v>
+        <v>0.62847662572579122</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>0.85884552587311314</v>
+        <v>0.68540450583502577</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>0.65780858973172285</v>
+        <v>0.68540463776909644</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>0.71023022858306439</v>
+        <v>0.59247643738960476</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>0.6874947497223991</v>
+        <v>0.72653445277461137</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>0.72199770663276386</v>
+        <v>0.36870715022530032</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>0.58401465121977525</v>
+        <v>0.5991983536542278</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>0.80362285852291171</v>
+        <v>0.66760302949154582</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>0.67336286624307351</v>
+        <v>3.948987927586245E-3</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>0.59970287861305915</v>
+        <v>0.6781049422802008</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>0.68094728100349444</v>
+        <v>0.77119152687864578</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>0.47646280923965639</v>
+        <v>0.60519801631498049</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>0.5167240606728235</v>
+        <v>0.45405177394696922</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>0.51665346308271942</v>
+        <v>0.60728896251058018</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>0.79585059910953393</v>
+        <v>0.61585697194232525</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>0.66264833501744747</v>
+        <v>0.52073452438041867</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>0.42246048156713623</v>
+        <v>0.1578295384418755</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>0.84030016806249652</v>
+        <v>0.58513931741715419</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>0.69114274955159738</v>
+        <v>0.82268568270891163</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>0.1267320136216894</v>
+        <v>0.64239813015461733</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>0.69061795037300422</v>
+        <v>0.82528299619775203</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>0.65147516042472531</v>
+        <v>0.82885037179845955</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>0.65020066017219902</v>
+        <v>0.65059486652368337</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>0.62847662572579122</v>
+        <v>0.19007984930475991</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>0.68540450583502577</v>
+        <v>0.15057016640783449</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>0.68540463776909644</v>
+        <v>0.81621557938085409</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>0.59247643738960476</v>
+        <v>0.3336141894885194</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>0.72653445277461137</v>
+        <v>0.65893119499545394</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>0.36870715022530032</v>
+        <v>0.69229248164693646</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>0.5991983536542278</v>
+        <v>0.69228822137867252</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>0.66760302949154582</v>
+        <v>0.68296255989001486</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>3.948987927586245E-3</v>
+        <v>0.72732820671715559</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>0.6781049422802008</v>
+        <v>0.62599390374251562</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>0.77119152687864578</v>
+        <v>3.219425560246791E-3</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>0.60519801631498049</v>
+        <v>0.83379988609886468</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>0.45405177394696922</v>
+        <v>0.72592548315064342</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>0.60728896251058018</v>
+        <v>0.60778423251014213</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>0.61585697194232525</v>
+        <v>0.2349680264181192</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>0.52073452438041867</v>
+        <v>0.80224821548645686</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>0.1578295384418755</v>
+        <v>0.2288619780843969</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>0.58513931741715419</v>
+        <v>0.1429080003056328</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>0.82268568270891163</v>
+        <v>0.66146329775372381</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>0.64239813015461733</v>
+        <v>0.66484715768220826</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>0.82528299619775203</v>
+        <v>0.62858694838811535</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>0.82885037179845955</v>
+        <v>0.65301240412965977</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>0.65059486652368337</v>
+        <v>0.21084022740869041</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>0.19007984930475991</v>
+        <v>0.1524572181423588</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>0.15057016640783449</v>
+        <v>0.69252004239458143</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>0.81621557938085409</v>
+        <v>0.32934346966801181</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>0.3336141894885194</v>
+        <v>0.70635117105266176</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>0.65893119499545394</v>
+        <v>0.80079238996398905</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>0.69229248164693646</v>
+        <v>0.85130639993749446</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>0.69228822137867252</v>
+        <v>0.69001266676666995</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>0.68296255989001486</v>
+        <v>0.56148470738392997</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>0.72732820671715559</v>
+        <v>0.8045998924545974</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>0.62599390374251562</v>
+        <v>0.45646408210263789</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>3.219425560246791E-3</v>
+        <v>0.49622722721071449</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>0.83379988609886468</v>
+        <v>0.79126430023675998</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>0.72592548315064342</v>
+        <v>0.512952731378988</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>0.60778423251014213</v>
+        <v>0.2239388374620255</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>0.2349680264181192</v>
+        <v>0.21041203396532529</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>0.80224821548645686</v>
+        <v>6.9585584523785493E-2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>0.2288619780843969</v>
+        <v>0.66572771501571637</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>0.1429080003056328</v>
+        <v>0.54787639138371325</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>0.66146329775372381</v>
+        <v>0.63503347959502987</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>0.66484715768220826</v>
+        <v>0.57112128769749737</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>0.62858694838811535</v>
+        <v>0.67011874490081669</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>0.65301240412965977</v>
+        <v>0.13728123832031611</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>0.21084022740869041</v>
+        <v>0.57203711650333244</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>0.1524572181423588</v>
+        <v>0.81432255771253204</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>0.69252004239458143</v>
+        <v>0.66906191146977156</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>0.32934346966801181</v>
+        <v>0.69679335108425011</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>0.70635117105266176</v>
+        <v>0.81297977940201838</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>0.80079238996398905</v>
+        <v>0.57077563574398738</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>0.85130639993749446</v>
+        <v>0.64789382816089636</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>0.69001266676666995</v>
+        <v>0.80914440027169499</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>0.56148470738392997</v>
+        <v>0.1234955565895263</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>0.8045998924545974</v>
+        <v>0.1424656945061292</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>0.45646408210263789</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>0.49622722721071449</v>
+        <v>0.46860639772714069</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>0.79126430023675998</v>
+        <v>0.4402048931413538</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>0.512952731378988</v>
+        <v>0.80125954687006296</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>0.2239388374620255</v>
+        <v>0.2053261726318111</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>0.21041203396532529</v>
+        <v>0.46032434339796968</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>6.9585584523785493E-2</v>
+        <v>0.58628351103890097</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>0.66572771501571637</v>
+        <v>0.62928164686576249</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>0.54787639138371325</v>
+        <v>0.46156436805068068</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>0.63503347959502987</v>
+        <v>0.63269477409231123</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>0.57112128769749737</v>
+        <v>0.68189070707019306</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>0.67011874490081669</v>
+        <v>0.36804614518216439</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>0.13728123832031611</v>
+        <v>0.46020842621560443</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>0.57203711650333244</v>
+        <v>0.7892317832156116</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>0.81432255771253204</v>
+        <v>0.79766706487511518</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>0.66906191146977156</v>
+        <v>0.35618615916512031</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>0.69679335108425011</v>
+        <v>0.66159139477795692</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>0.81297977940201838</v>
+        <v>0.80718463015607889</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>0.57077563574398738</v>
+        <v>0.66106740395704655</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>0.64789382816089636</v>
+        <v>0.59901732677448472</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>0.80914440027169499</v>
+        <v>0.82674500552174846</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>0.1234955565895263</v>
+        <v>0.22841107069854491</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>0.1424656945061292</v>
+        <v>0.10559437906185271</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>0.51082395711605944</v>
+        <v>0.79291218906136729</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>0.46860639772714069</v>
+        <v>0.66609046649102399</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>0.4402048931413538</v>
+        <v>0.3817870269504744</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>0.80125954687006296</v>
+        <v>0.32323354210818522</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>0.2053261726318111</v>
+        <v>0.79437286517332528</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>0.46032434339796968</v>
+        <v>0.14928210609954551</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>0.58628351103890097</v>
+        <v>0.64081561021830324</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>0.62928164686576249</v>
+        <v>0.66524023224559836</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>0.46156436805068068</v>
+        <v>0.27495375446414821</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>0.63269477409231123</v>
+        <v>0.62799552102434109</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>0.68189070707019306</v>
+        <v>0.6583402546904662</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>0.36804614518216439</v>
+        <v>0.85207664993393073</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>0.46020842621560443</v>
+        <v>0.85227602099844446</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>0.7892317832156116</v>
+        <v>0.63947146621246975</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>0.79766706487511518</v>
+        <v>0.6466435216413311</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>0.35618615916512031</v>
+        <v>0.58739862968678924</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>0.66159139477795692</v>
+        <v>0.16518870518080489</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>0.80718463015607889</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>0.66106740395704655</v>
+        <v>0.79176625594490613</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>0.59901732677448472</v>
+        <v>0.74807992600268225</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>0.82674500552174846</v>
+        <v>0.215400768908211</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>0.22841107069854491</v>
+        <v>0.59930805010365207</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>0.10559437906185271</v>
+        <v>0.80634703579725209</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>0.79291218906136729</v>
+        <v>0.65390148942702808</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>0.66609046649102399</v>
+        <v>0.46975976466266189</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>0.3817870269504744</v>
+        <v>0.36952399743269981</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>0.32323354210818522</v>
+        <v>0.66593677539458751</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>0.79437286517332528</v>
+        <v>0.58370801108051174</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>0.14928210609954551</v>
+        <v>0.59670987286442201</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>0.64081561021830324</v>
+        <v>0.2134714875155691</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>0.66524023224559836</v>
+        <v>0.66056489123551065</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>0.27495375446414821</v>
+        <v>0.69751748405137715</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>0.62799552102434109</v>
+        <v>0.68772346604244472</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>0.6583402546904662</v>
+        <v>0.66251737194800808</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>0.85207664993393073</v>
+        <v>0.62588343077630582</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>0.85227602099844446</v>
+        <v>0.59914488854833614</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>0.63947146621246975</v>
+        <v>0.45153191356659023</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>0.6466435216413311</v>
+        <v>0.60569541282092065</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>0.58739862968678924</v>
+        <v>0.59712433625408412</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>0.16518870518080489</v>
+        <v>0.68829932542222594</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>0.51082395711605944</v>
+        <v>0.57813570221909472</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>0.79176625594490613</v>
+        <v>0.58676723013400722</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>0.74807992600268225</v>
+        <v>0.46360546720140761</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>0.215400768908211</v>
+        <v>0.151567022646247</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>0.59930805010365207</v>
+        <v>0.58636760247045872</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>0.80634703579725209</v>
+        <v>0.64164795651703199</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>0.65390148942702808</v>
+        <v>0.79713607011497434</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>0.46975976466266189</v>
+        <v>0.6856569564472057</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>0.36952399743269981</v>
+        <v>0.47701454116198549</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>0.66593677539458751</v>
+        <v>0.80845247852672941</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>0.58370801108051174</v>
+        <v>0.82690866235775995</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>0.59670987286442201</v>
+        <v>0.4616425666230638</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>0.2134714875155691</v>
+        <v>0.57573391317912037</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>0.66056489123551065</v>
+        <v>0.2014193777514737</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>0.69751748405137715</v>
+        <v>0.45908784161049371</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>0.68772346604244472</v>
+        <v>0.81841289387644933</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>0.66251737194800808</v>
+        <v>0.20995667869291301</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>0.62588343077630582</v>
+        <v>0.26106372716703807</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>0.59914488854833614</v>
+        <v>0.75808384735658896</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>0.45153191356659023</v>
+        <v>0.36056325573145792</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>0.60569541282092065</v>
+        <v>0.34263666969935858</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>0.59712433625408412</v>
+        <v>0.61321195908986526</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>0.68829932542222594</v>
+        <v>0.24084781302102951</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>0.57813570221909472</v>
+        <v>0.67401115262827926</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>0.58676723013400722</v>
+        <v>0.79005467050464995</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>0.46360546720140761</v>
+        <v>0.70899653387725059</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>0.151567022646247</v>
+        <v>0.69224959936883756</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>0.58636760247045872</v>
+        <v>0.59852823796941701</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>0.64164795651703199</v>
+        <v>0.36251151712745727</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>0.79713607011497434</v>
+        <v>0.56318031952036796</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>0.6856569564472057</v>
+        <v>0.80817466291759255</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>0.47701454116198549</v>
+        <v>0.5665610201571698</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>0.80845247852672941</v>
+        <v>0.46555248251356718</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>0.82690866235775995</v>
+        <v>0.39631759061190819</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>0.4616425666230638</v>
+        <v>0.15464065561149559</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>0.57573391317912037</v>
+        <v>0.46065728603225542</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>0.2014193777514737</v>
+        <v>0.85172774006442431</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>0.45908784161049371</v>
+        <v>0.68031269747790424</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>0.81841289387644933</v>
+        <v>0.20494116274650021</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>0.20995667869291301</v>
+        <v>0.80974119832844904</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>0.26106372716703807</v>
+        <v>0.20469790542357419</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>0.75808384735658896</v>
+        <v>0.45539284747425413</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>0.36056325573145792</v>
+        <v>0.40601546118458681</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>0.34263666969935858</v>
+        <v>0.32522054600400652</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>0.61321195908986526</v>
+        <v>0.47320704728212309</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>0.24084781302102951</v>
+        <v>0.46616904228674327</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>0.67401115262827926</v>
+        <v>0.70122791509508797</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>0.79005467050464995</v>
+        <v>0.44352563803924372</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>0.70899653387725059</v>
+        <v>0.66203016217452393</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>0.69224959936883756</v>
+        <v>0.69491578251662856</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>0.59852823796941701</v>
+        <v>0.67006784612016546</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>0.36251151712745727</v>
+        <v>0.62590624973651177</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>0.56318031952036796</v>
+        <v>0.83568984295035298</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>0.80817466291759255</v>
+        <v>0.66611323536860678</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>0.5665610201571698</v>
+        <v>0.12805263201888689</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>0.46555248251356718</v>
+        <v>0.46635979703550978</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>0.39631759061190819</v>
+        <v>0.6800522636317099</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>0.15464065561149559</v>
+        <v>0.46065728603225542</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>0.46065728603225542</v>
+        <v>0.61328604460073999</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>0.85172774006442431</v>
+        <v>0.45896295573716411</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>0.68031269747790424</v>
+        <v>0.47672808097821262</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>0.20494116274650021</v>
+        <v>0.44453046184439121</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>0.80974119832844904</v>
+        <v>0.59705782703241561</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>0.20469790542357419</v>
+        <v>0.61198108309690746</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>0.45539284747425413</v>
+        <v>0.6243080813528028</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>0.40601546118458681</v>
+        <v>0.62967021716206739</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>0.32522054600400652</v>
+        <v>0.81919998725872467</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>0.47320704728212309</v>
+        <v>0.66148247683991479</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>0.46616904228674327</v>
+        <v>0.55197284521069911</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>0.70122791509508797</v>
+        <v>0.20338376040886211</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>0.44352563803924372</v>
+        <v>0.32487998311024002</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>0.66203016217452393</v>
+        <v>0.45558497168360362</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>0.69491578251662856</v>
+        <v>0.172903737455819</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>0.67006784612016546</v>
+        <v>0.2452093194730374</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>0.62590624973651177</v>
+        <v>0.66134779607440497</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>0.83568984295035298</v>
+        <v>2.3176943112245611E-2</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>0.66611323536860678</v>
+        <v>0.68145305938261791</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>0.12805263201888689</v>
+        <v>0.34512230265739408</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>0.46635979703550978</v>
+        <v>0.31150910632236911</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>0.6800522636317099</v>
+        <v>0.80684653042804377</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>0.46065728603225542</v>
+        <v>0.61903974383716387</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>0.61328604460073999</v>
+        <v>0.64921468978341279</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>0.45896295573716411</v>
+        <v>0.20499259376208631</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>0.47672808097821262</v>
+        <v>4.6486934385554513E-3</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>0.44453046184439121</v>
+        <v>0.62639443286293806</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>0.59705782703241561</v>
+        <v>0.68647640005927246</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>0.61198108309690746</v>
+        <v>0.63316925273947744</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>0.6243080813528028</v>
+        <v>0.82852180343540205</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>0.62967021716206739</v>
+        <v>0.63520938422738937</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>0.81919998725872467</v>
+        <v>0.1080610159523164</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>0.66148247683991479</v>
+        <v>0.14847819643133919</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>0.55197284521069911</v>
+        <v>0.35899970270725001</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>0.20338376040886211</v>
+        <v>0.66724230151768804</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>0.32487998311024002</v>
+        <v>0.48898831968338469</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>0.45558497168360362</v>
+        <v>0.76989586179373914</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>0.172903737455819</v>
+        <v>0.4551829309982911</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>0.2452093194730374</v>
+        <v>0.64145276330880252</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>0.66134779607440497</v>
+        <v>0.45785268463517892</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>2.3176943112245611E-2</v>
+        <v>0.44577845332704441</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>0.68145305938261791</v>
+        <v>0.15881085089325939</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>0.34512230265739408</v>
+        <v>0.45308642243081809</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>0.31150910632236911</v>
+        <v>0.45472575524767861</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>0.80684653042804377</v>
+        <v>0.4531767529609797</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>0.61903974383716387</v>
+        <v>0.37801996401966731</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>0.64921468978341279</v>
+        <v>0.39239717922814138</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>0.20499259376208631</v>
+        <v>0.79330156183848244</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>4.6486934385554513E-3</v>
+        <v>0.61694759492074946</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>0.62639443286293806</v>
+        <v>0.36356053887103751</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>0.68647640005927246</v>
+        <v>0.38259750703126222</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>0.63316925273947744</v>
+        <v>0.43083429010172519</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>0.82852180343540205</v>
+        <v>0.63079302861662545</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>0.63520938422738937</v>
+        <v>0.34983568077013733</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>0.1080610159523164</v>
+        <v>0.36268269260751851</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>0.14847819643133919</v>
+        <v>0.31301349687606039</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>0.35899970270725001</v>
+        <v>0.36270729301070659</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>0.66724230151768804</v>
+        <v>9.9475110148192103E-2</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>0.48898831968338469</v>
+        <v>0.33482096398739808</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>0.76989586179373914</v>
+        <v>0.56240298131040189</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>0.4551829309982911</v>
+        <v>0.1884469116102028</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>0.64145276330880252</v>
+        <v>0.46176474652346827</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>0.45785268463517892</v>
+        <v>0.45456051256245689</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>0.44577845332704441</v>
+        <v>0.66071704036374757</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>0.15881085089325939</v>
+        <v>0.33784464717070922</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>0.45308642243081809</v>
+        <v>0.59421786118471243</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>0.45472575524767861</v>
+        <v>0.48031433579038257</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>0.4531767529609797</v>
+        <v>0.62946455207977903</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>0.37801996401966731</v>
+        <v>0.46399615169664882</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>0.39239717922814138</v>
+        <v>0.23871003607201011</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>0.79330156183848244</v>
+        <v>0.66151413703168493</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>0.61694759492074946</v>
+        <v>0.59932860998239945</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>0.36356053887103751</v>
+        <v>0.462516748971042</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>0.38259750703126222</v>
+        <v>0.7619739825470554</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>0.43083429010172519</v>
+        <v>0.36363921678666111</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>0.63079302861662545</v>
+        <v>0.4379646542742538</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>0.34983568077013733</v>
+        <v>0.36067519538848941</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>0.36268269260751851</v>
+        <v>0.44902918138600739</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>0.31301349687606039</v>
+        <v>0.32227963374842439</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>0.36270729301070659</v>
+        <v>0.37277387216339941</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>9.9475110148192103E-2</v>
+        <v>0.67785777083539833</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>0.33482096398739808</v>
+        <v>0.21888431377982251</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>0.56240298131040189</v>
+        <v>0.84134565973835418</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>0.1884469116102028</v>
+        <v>0.66717735980400317</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>0.46176474652346827</v>
+        <v>0.66823580102684677</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>0.45456051256245689</v>
+        <v>0.31619728604661129</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>0.66071704036374757</v>
+        <v>0.46259609998092771</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>0.33784464717070922</v>
+        <v>0.36084156325245259</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>0.59421786118471243</v>
+        <v>0.159160006694954</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>0.48031433579038257</v>
+        <v>0.86087138158936627</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>0.62946455207977903</v>
+        <v>0.47694902368065439</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>0.46399615169664882</v>
+        <v>0.5595465239275681</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>0.23871003607201011</v>
+        <v>0.64552510766158622</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>0.66151413703168493</v>
+        <v>0.31021055647347551</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>0.59932860998239945</v>
+        <v>0.85633089429791842</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>0.462516748971042</v>
+        <v>0.269029064311475</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>0.7619739825470554</v>
+        <v>0.58419420609891459</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>0.36363921678666111</v>
+        <v>0.67758824090137793</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>0.4379646542742538</v>
+        <v>0.6871854083868546</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>0.36067519538848941</v>
+        <v>0.60550553253469008</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>0.44902918138600739</v>
+        <v>0.33717170748633718</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412">
-        <v>0.32227963374842439</v>
+        <v>0.27056561690151781</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413">
-        <v>0.37277387216339941</v>
+        <v>0.3121266599207424</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414">
-        <v>0.67785777083539833</v>
+        <v>0.36643875097499862</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415">
-        <v>0.21888431377982251</v>
+        <v>0.66425778344788355</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416">
-        <v>0.84134565973835418</v>
+        <v>0.60649046370119475</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417">
-        <v>0.66717735980400317</v>
+        <v>0.63282841066104334</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418">
-        <v>0.66823580102684677</v>
+        <v>0.62135387397880326</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419">
-        <v>0.31619728604661129</v>
+        <v>0.3668995972755007</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420">
-        <v>0.46259609998092771</v>
+        <v>0.49005168762836893</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421">
-        <v>0.36084156325245259</v>
+        <v>0.60364512787613889</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422">
-        <v>0.159160006694954</v>
+        <v>0.65718576678382834</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423">
-        <v>0.86087138158936627</v>
+        <v>0.65043769869964707</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424">
-        <v>0.47694902368065439</v>
+        <v>0.84884576156489033</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425">
-        <v>0.5595465239275681</v>
+        <v>0.84694458657525973</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426">
-        <v>0.64552510766158622</v>
+        <v>0.70365326470525202</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427">
-        <v>0.31021055647347551</v>
+        <v>0.68623939068065987</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428">
-        <v>0.85633089429791842</v>
+        <v>0.62116118124167308</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429">
-        <v>0.269029064311475</v>
+        <v>0.68285030495409771</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430">
-        <v>0.58419420609891459</v>
+        <v>0.46768733677647079</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431">
-        <v>0.67758824090137793</v>
+        <v>0.60641465616834456</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432">
-        <v>0.6871854083868546</v>
+        <v>0.60985850755343551</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433">
-        <v>0.60550553253469008</v>
+        <v>0.58533519134776757</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434">
-        <v>0.33717170748633718</v>
+        <v>0.66140773153601973</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435">
-        <v>0.27056561690151781</v>
+        <v>0.64501295147625703</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436">
-        <v>0.3121266599207424</v>
+        <v>0.66078423869764147</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437">
-        <v>0.36643875097499862</v>
+        <v>0.7092916544622816</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438">
-        <v>0.66425778344788355</v>
+        <v>0.60410774416616442</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439">
-        <v>0.60649046370119475</v>
+        <v>0.60305761605965436</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440">
-        <v>0.63282841066104334</v>
+        <v>0.65970226396239506</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441">
-        <v>0.62135387397880326</v>
+        <v>0.69897028331895195</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442">
-        <v>0.3668995972755007</v>
+        <v>0.5974549821834847</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443">
-        <v>0.49005168762836893</v>
+        <v>0.38303600105296881</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444">
-        <v>0.60364512787613889</v>
+        <v>0.68426411815127186</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445">
-        <v>0.65718576678382834</v>
+        <v>0.6087804028077255</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446">
-        <v>0.65043769869964707</v>
+        <v>0.63263573795626016</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447">
-        <v>0.84884576156489033</v>
+        <v>0.17592578835920539</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448">
-        <v>0.84694458657525973</v>
+        <v>0.62861994771219865</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449">
-        <v>0.70365326470525202</v>
+        <v>0.50546792982250377</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450">
-        <v>0.68623939068065987</v>
+        <v>0.61626770461394853</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451">
-        <v>0.62116118124167308</v>
+        <v>0.62884775700820428</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452">
-        <v>0.68285030495409771</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453">
-        <v>0.46768733677647079</v>
+        <v>0.82036420714795366</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454">
-        <v>0.60641465616834456</v>
+        <v>0.4796369753880152</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455">
-        <v>0.60985850755343551</v>
+        <v>0.60410774416616442</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456">
-        <v>0.58533519134776757</v>
+        <v>0.6873164406221437</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457">
-        <v>0.66140773153601973</v>
+        <v>0.7488194627356537</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458">
-        <v>0.64501295147625703</v>
+        <v>0.66719030608339702</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459">
-        <v>0.66078423869764147</v>
+        <v>0.60599140963142761</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460">
-        <v>0.7092916544622816</v>
+        <v>0.6469221964491596</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461">
-        <v>0.60410774416616442</v>
+        <v>0.61316983678018733</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462">
-        <v>0.60305761605965436</v>
+        <v>0.80127685949203831</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463">
-        <v>0.65970226396239506</v>
+        <v>0.68460774290961535</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464">
-        <v>0.69897028331895195</v>
+        <v>0.72938597225635937</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465">
-        <v>0.5974549821834847</v>
+        <v>0.77896745728790451</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466">
-        <v>0.38303600105296881</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467">
-        <v>0.68426411815127186</v>
+        <v>0.76065758403114048</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468">
-        <v>0.6087804028077255</v>
+        <v>0.74828801919144805</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469">
-        <v>0.63263573795626016</v>
+        <v>0.74995680841347623</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470">
-        <v>0.17592578835920539</v>
+        <v>0.69189146547164915</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471">
-        <v>0.62861994771219865</v>
+        <v>0.83138694399759272</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472">
-        <v>0.50546792982250377</v>
+        <v>0.66971687458446305</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473">
-        <v>0.61626770461394853</v>
+        <v>0.79918900723169339</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474">
-        <v>0.62884775700820428</v>
+        <v>0.77822900909584325</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475">
-        <v>0.51082395711605944</v>
+        <v>0.63377726012381275</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476">
-        <v>0.82036420714795366</v>
+        <v>0.72875974269284605</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477">
-        <v>0.4796369753880152</v>
+        <v>0.63299855648311398</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478">
-        <v>0.60410774416616442</v>
+        <v>0.58135866234486322</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479">
-        <v>0.6873164406221437</v>
+        <v>0.85581756227978656</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480">
-        <v>0.7488194627356537</v>
+        <v>0.6070892138865831</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481">
-        <v>0.66719030608339702</v>
+        <v>0.60321450163592272</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482">
-        <v>0.60599140963142761</v>
+        <v>0.65244046675440082</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483">
-        <v>0.6469221964491596</v>
+        <v>0.32948129960244732</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484">
-        <v>0.61316983678018733</v>
+        <v>0.55716755976773202</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
-        <v>0.80127685949203831</v>
+        <v>0.85133906668452386</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
-        <v>0.68460774290961535</v>
+        <v>0.61022949305425067</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487">
-        <v>0.72938597225635937</v>
+        <v>0.62358232105146227</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488">
-        <v>0.77896745728790451</v>
+        <v>0.73342007537358034</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489">
-        <v>0.51082395711605944</v>
+        <v>0.85186567273792768</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
-        <v>0.76065758403114048</v>
+        <v>0.70053050367457737</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491">
-        <v>0.74828801919144805</v>
+        <v>0.6805137802170329</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492">
-        <v>0.74995680841347623</v>
+        <v>0.75816653606781348</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493">
-        <v>0.69189146547164915</v>
+        <v>0.57979014809422458</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494">
-        <v>0.83138694399759272</v>
+        <v>0.63294275711872106</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495">
-        <v>0.66971687458446305</v>
+        <v>0.70826600117937444</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496">
-        <v>0.79918900723169339</v>
+        <v>0.6615854484332031</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497">
-        <v>0.77822900909584325</v>
+        <v>0.67534705814003004</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498">
-        <v>0.63377726012381275</v>
+        <v>0.61741448746104277</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499">
-        <v>0.72875974269284605</v>
+        <v>0.74717784745407578</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500">
-        <v>0.63299855648311398</v>
+        <v>0.85165966905048418</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501">
-        <v>0.58135866234486322</v>
+        <v>0.56896689490824326</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502">
-        <v>0.85581756227978656</v>
+        <v>0.81973683066994774</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503">
-        <v>0.6070892138865831</v>
+        <v>0.45289118726889588</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504">
-        <v>0.60321450163592272</v>
+        <v>0.71004535419470172</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505">
-        <v>0.65244046675440082</v>
+        <v>0.64201398711418134</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506">
-        <v>0.32948129960244732</v>
+        <v>0.70087637534571812</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507">
-        <v>0.55716755976773202</v>
+        <v>0.79067715569446406</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
-        <v>0.85133906668452386</v>
+        <v>0.41926068708780839</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509">
-        <v>0.61022949305425067</v>
+        <v>0.63611022423998698</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510">
-        <v>0.62358232105146227</v>
+        <v>0.76272223192384081</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511">
-        <v>0.73342007537358034</v>
+        <v>0.80233127791353931</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512">
-        <v>0.85186567273792768</v>
+        <v>0.59871650267219523</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513">
-        <v>0.70053050367457737</v>
+        <v>0.62884752070919103</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514">
-        <v>0.6805137802170329</v>
+        <v>0.84859488003956807</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515">
-        <v>0.75816653606781348</v>
+        <v>0.68325414059778122</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516">
-        <v>0.57979014809422458</v>
+        <v>0.6091833994929523</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517">
-        <v>0.63294275711872106</v>
+        <v>0.65964885432938991</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518">
-        <v>0.70826600117937444</v>
+        <v>0.6720473460030878</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519">
-        <v>0.6615854484332031</v>
+        <v>0.80390921261325554</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520">
-        <v>0.67534705814003004</v>
+        <v>0.68772346604244472</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521">
-        <v>0.61741448746104277</v>
+        <v>0.68428697441146114</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522">
-        <v>0.74717784745407578</v>
+        <v>0.67400370181298375</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523">
-        <v>0.85165966905048418</v>
+        <v>0.65173652033422447</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524">
-        <v>0.56896689490824326</v>
+        <v>0.81553890235801141</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525">
-        <v>0.81973683066994774</v>
+        <v>0.61189378249819115</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526">
-        <v>0.45289118726889588</v>
+        <v>0.53703287119799314</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527">
-        <v>0.71004535419470172</v>
+        <v>0.59607342780015271</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528">
-        <v>0.64201398711418134</v>
+        <v>0.84315765206825866</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529">
-        <v>0.70087637534571812</v>
+        <v>0.78038803651639654</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530">
-        <v>0.79067715569446406</v>
+        <v>0.65891317641181046</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531">
-        <v>0.41926068708780839</v>
+        <v>0.59436859398716568</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532">
-        <v>0.63611022423998698</v>
+        <v>0.59849367779927998</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533">
-        <v>0.76272223192384081</v>
+        <v>0.80733645762658124</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534">
-        <v>0.80233127791353931</v>
+        <v>0.68804731682931719</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535">
-        <v>0.59871650267219523</v>
+        <v>0.44873287241906079</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536">
-        <v>0.62884752070919103</v>
+        <v>0.67578779556673574</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537">
-        <v>0.84859488003956807</v>
+        <v>0.72464124666185969</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538">
-        <v>0.68325414059778122</v>
+        <v>0.777690904885314</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539">
-        <v>0.6091833994929523</v>
+        <v>0.55333975477403319</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540">
-        <v>0.65964885432938991</v>
+        <v>0.60957749757014068</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541">
-        <v>0.6720473460030878</v>
+        <v>0.32071537042769122</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542">
-        <v>0.80390921261325554</v>
+        <v>0.63504757834122416</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543">
-        <v>0.68772346604244472</v>
+        <v>0.61977079192533258</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544">
-        <v>0.68428697441146114</v>
+        <v>0.64399106763223024</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545">
-        <v>0.67400370181298375</v>
+        <v>0.68240996541242938</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546">
-        <v>0.65173652033422447</v>
+        <v>0.66681761253452221</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547">
-        <v>0.81553890235801141</v>
+        <v>0.7232612405412453</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548">
-        <v>0.61189378249819115</v>
+        <v>0.55904336040834091</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549">
-        <v>0.53703287119799314</v>
+        <v>0.67461287087947286</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550">
-        <v>0.59607342780015271</v>
+        <v>0.66408894004281793</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551">
-        <v>0.84315765206825866</v>
+        <v>0.67237522489022261</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552">
-        <v>0.78038803651639654</v>
+        <v>0.8064657780024429</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553">
-        <v>0.65891317641181046</v>
+        <v>0.78776181884865348</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554">
-        <v>0.59436859398716568</v>
+        <v>0.66479966965330695</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555">
-        <v>0.59849367779927998</v>
+        <v>0.65973198010842338</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556">
-        <v>0.80733645762658124</v>
+        <v>0.58938508009345303</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557">
-        <v>0.68804731682931719</v>
+        <v>0.59480007759910281</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558">
-        <v>0.44873287241906079</v>
+        <v>0.15836006548159429</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559">
-        <v>0.67578779556673574</v>
+        <v>0.76235017355074663</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560">
-        <v>0.72464124666185969</v>
+        <v>0.71851455647130291</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561">
-        <v>0.777690904885314</v>
+        <v>0.64013476558605786</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562">
-        <v>0.55333975477403319</v>
+        <v>0.65497471536702823</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563">
-        <v>0.60957749757014068</v>
+        <v>0.50167920934412791</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564">
-        <v>0.32071537042769122</v>
+        <v>0.79920573843108866</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565">
-        <v>0.63504757834122416</v>
+        <v>0.64658252234158564</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566">
-        <v>0.61977079192533258</v>
+        <v>0.58503659719111811</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A567">
-        <v>0.64399106763223024</v>
+        <v>0.59195455510798045</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A568">
-        <v>0.68240996541242938</v>
+        <v>0.61041592924617161</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569">
-        <v>0.66681761253452221</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A570">
-        <v>0.7232612405412453</v>
+        <v>0.64545137227571259</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571">
-        <v>0.55904336040834091</v>
+        <v>0.58624102180877347</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A572">
-        <v>0.67461287087947286</v>
+        <v>0.69317649622441768</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A573">
-        <v>0.66408894004281793</v>
+        <v>0.57501769001665526</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A574">
-        <v>0.67237522489022261</v>
+        <v>0.66920326507799732</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575">
-        <v>0.8064657780024429</v>
+        <v>0.66857191579296416</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576">
-        <v>0.78776181884865348</v>
+        <v>0.7157549082682666</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577">
-        <v>0.66479966965330695</v>
+        <v>0.83781683697310272</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578">
-        <v>0.65973198010842338</v>
+        <v>0.45220552970144817</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579">
-        <v>0.58938508009345303</v>
+        <v>0.45784849369548553</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580">
-        <v>0.59480007759910281</v>
+        <v>0.7795083858679448</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A581">
-        <v>0.15836006548159429</v>
+        <v>0.6100228815078701</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582">
-        <v>0.76235017355074663</v>
+        <v>0.79545050103379422</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A583">
-        <v>0.71851455647130291</v>
+        <v>0.63179529444617921</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A584">
-        <v>0.64013476558605786</v>
+        <v>0.65187946343875902</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585">
-        <v>0.65497471536702823</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A586">
-        <v>0.50167920934412791</v>
+        <v>0.61164495161706189</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587">
-        <v>0.79920573843108866</v>
+        <v>0.58850375320665549</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588">
-        <v>0.64658252234158564</v>
+        <v>0.55898173449914679</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A589">
-        <v>0.58503659719111811</v>
+        <v>0.60091596279379378</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A590">
-        <v>0.59195455510798045</v>
+        <v>0.80213247956397549</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591">
-        <v>0.61041592924617161</v>
+        <v>0.80142739702349786</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592">
-        <v>0.51082395711605944</v>
+        <v>0.76216995062484438</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593">
-        <v>0.64545137227571259</v>
+        <v>0.75610377423476327</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594">
-        <v>0.58624102180877347</v>
+        <v>0.61113618480198006</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A595">
-        <v>0.69317649622441768</v>
+        <v>0.66702020622670855</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A596">
-        <v>0.57501769001665526</v>
+        <v>0.68651378283674802</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597">
-        <v>0.66920326507799732</v>
+        <v>0.51082395711605944</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A598">
-        <v>0.66857191579296416</v>
+        <v>0.83666299430299063</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599">
-        <v>0.7157549082682666</v>
+        <v>0.84862197408920415</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A600">
-        <v>0.83781683697310272</v>
+        <v>0.75071666395675529</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601">
-        <v>0.45220552970144817</v>
+        <v>0.80213132555740363</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A602">
-        <v>0.45784849369548553</v>
+        <v>0.65891388761643888</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A603">
-        <v>0.7795083858679448</v>
+        <v>0.19661433205683571</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A604">
-        <v>0.6100228815078701</v>
+        <v>0.81312530642181347</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605">
-        <v>0.79545050103379422</v>
+        <v>0.56621157532648447</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606">
-        <v>0.63179529444617921</v>
+        <v>0.79578249823934388</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A607">
-        <v>0.65187946343875902</v>
+        <v>0.64715239138823899</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608">
-        <v>0.51082395711605944</v>
+        <v>0.8184407368322939</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609">
-        <v>0.61164495161706189</v>
+        <v>0.73320300549139761</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610">
-        <v>0.58850375320665549</v>
+        <v>0.66218404200867409</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611">
-        <v>0.55898173449914679</v>
+        <v>0.8023932072028912</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612">
-        <v>0.60091596279379378</v>
+        <v>0.69604568686844592</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613">
-        <v>0.80213247956397549</v>
+        <v>0.81492899443657074</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614">
-        <v>0.80142739702349786</v>
+        <v>0.67207072251899014</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615">
-        <v>0.76216995062484438</v>
+        <v>0.68896071317866792</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616">
-        <v>0.75610377423476327</v>
+        <v>0.57763757218257816</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617">
-        <v>0.61113618480198006</v>
+        <v>0.80814639503226193</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618">
-        <v>0.66702020622670855</v>
+        <v>0.68175163959151097</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619">
-        <v>0.68651378283674802</v>
+        <v>0.58721683587702267</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620">
-        <v>0.51082395711605944</v>
+        <v>0.632467184047796</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621">
-        <v>0.83666299430299063</v>
+        <v>0.61428799370165987</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A622">
-        <v>0.84862197408920415</v>
+        <v>0.61023967650721922</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623">
-        <v>0.75071666395675529</v>
+        <v>0.6536668322238226</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A624">
-        <v>0.80213132555740363</v>
+        <v>0.79353378858302448</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625">
-        <v>0.65891388761643888</v>
+        <v>0.34694451167898271</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626">
-        <v>0.19661433205683571</v>
+        <v>0.84824283346851859</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627">
-        <v>0.81312530642181347</v>
+        <v>0.43953368143554522</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628">
-        <v>0.56621157532648447</v>
+        <v>0.76184826627466495</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629">
-        <v>0.79578249823934388</v>
+        <v>0.62371401805608639</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630">
-        <v>0.64715239138823899</v>
+        <v>0.82827340905391766</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631">
-        <v>0.8184407368322939</v>
+        <v>0.64527973930751137</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632">
-        <v>0.73320300549139761</v>
+        <v>0.66638467875212892</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633">
-        <v>0.66218404200867409</v>
+        <v>0.57907539137220931</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634">
-        <v>0.8023932072028912</v>
+        <v>0.63543424177278196</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635">
-        <v>0.69604568686844592</v>
+        <v>0.81485005766865448</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636">
-        <v>0.81492899443657074</v>
+        <v>0.12723218116999829</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637">
-        <v>0.67207072251899014</v>
+        <v>0.62987997143917307</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638">
-        <v>0.68896071317866792</v>
+        <v>0.7663272716121301</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639">
-        <v>0.57763757218257816</v>
+        <v>0.78944230347168065</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640">
-        <v>0.80814639503226193</v>
+        <v>0.66869161307563285</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641">
-        <v>0.68175163959151097</v>
+        <v>0.43970320211213948</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642">
-        <v>0.58721683587702267</v>
+        <v>0.69029529661960654</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643">
-        <v>0.632467184047796</v>
+        <v>0.72630167727280459</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644">
-        <v>0.61428799370165987</v>
+        <v>0.66516812034252493</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645">
-        <v>0.61023967650721922</v>
+        <v>0.8311746652833818</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646">
-        <v>0.6536668322238226</v>
+        <v>0.68829932542222594</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647">
-        <v>0.79353378858302448</v>
+        <v>0.58474722577406479</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648">
-        <v>0.34694451167898271</v>
+        <v>0.5982766256544414</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649">
-        <v>0.84824283346851859</v>
+        <v>0.83153875562759993</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650">
-        <v>0.43953368143554522</v>
+        <v>0.80404091810227263</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651">
-        <v>0.76184826627466495</v>
+        <v>0.84785331368735783</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652">
-        <v>0.62371401805608639</v>
+        <v>0.72481979431013177</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653">
-        <v>0.82827340905391766</v>
+        <v>0.53129039938321265</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654">
-        <v>0.64527973930751137</v>
+        <v>0.82679050404334808</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655">
-        <v>0.66638467875212892</v>
+        <v>0.68972454633195102</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656">
-        <v>0.57907539137220931</v>
+        <v>0.80347842214054932</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657">
-        <v>0.63543424177278196</v>
+        <v>0.49838575208463298</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658">
-        <v>0.81485005766865448</v>
+        <v>0.74522229055692513</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659">
-        <v>0.12723218116999829</v>
+        <v>0.6734741049687516</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660">
-        <v>0.62987997143917307</v>
+        <v>0.74390284641669546</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661">
-        <v>0.7663272716121301</v>
+        <v>0.46947356213614028</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662">
-        <v>0.78944230347168065</v>
+        <v>0.61244910753888515</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663">
-        <v>0.66869161307563285</v>
+        <v>0.1221649583471113</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664">
-        <v>0.43970320211213948</v>
+        <v>0.32863834291013011</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665">
-        <v>0.69029529661960654</v>
+        <v>0.59741170861355986</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666">
-        <v>0.72630167727280459</v>
+        <v>0.66105107402112351</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667">
-        <v>0.66516812034252493</v>
+        <v>0.64285492858415805</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668">
-        <v>0.8311746652833818</v>
+        <v>0.59845571668972664</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669">
-        <v>0.68829932542222594</v>
+        <v>0.66598774201458699</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670">
-        <v>0.58474722577406479</v>
+        <v>0.69146746684490423</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671">
-        <v>0.5982766256544414</v>
+        <v>0.75869590001146436</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672">
-        <v>0.83153875562759993</v>
+        <v>0.83700739454456263</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673">
-        <v>0.80404091810227263</v>
+        <v>0.77417274634508515</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674">
-        <v>0.84785331368735783</v>
+        <v>0.64823116727863206</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675">
-        <v>0.72481979431013177</v>
+        <v>0.66872771616688442</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676">
-        <v>0.53129039938321265</v>
+        <v>0.74526853874909915</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677">
-        <v>0.82679050404334808</v>
+        <v>0.59378731865524026</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678">
-        <v>0.68972454633195102</v>
+        <v>0.66121802777077243</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679">
-        <v>0.80347842214054932</v>
+        <v>0.83116303532008529</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680">
-        <v>0.49838575208463298</v>
+        <v>0.60015198043910467</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681">
-        <v>0.74522229055692513</v>
+        <v>0.31225349499487248</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682">
-        <v>0.6734741049687516</v>
+        <v>0.66010842097999123</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683">
-        <v>0.74390284641669546</v>
+        <v>0.15836322997973479</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684">
-        <v>0.46947356213614028</v>
+        <v>0.67595798647095684</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685">
-        <v>0.61244910753888515</v>
+        <v>0.60100212768797745</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686">
-        <v>0.1221649583471113</v>
+        <v>0.83116062929068579</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687">
-        <v>0.32863834291013011</v>
+        <v>0.66285000516787429</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688">
-        <v>0.59741170861355986</v>
+        <v>0.57539734899577533</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689">
-        <v>0.66105107402112351</v>
+        <v>0.69386644573036782</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690">
-        <v>0.64285492858415805</v>
+        <v>0.60411230610958455</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691">
-        <v>0.59845571668972664</v>
+        <v>0.73919179600798346</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692">
-        <v>0.66598774201458699</v>
+        <v>0.62500281217877829</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693">
-        <v>0.69146746684490423</v>
+        <v>0.82383617928008801</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694">
-        <v>0.75869590001146436</v>
+        <v>0.83178252020635202</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695">
-        <v>0.83700739454456263</v>
+        <v>0.36121646740047753</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696">
-        <v>0.77417274634508515</v>
+        <v>0.7103809958685412</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697">
-        <v>0.64823116727863206</v>
+        <v>0.66764662158057531</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698">
-        <v>0.66872771616688442</v>
+        <v>0.36410289843746191</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699">
-        <v>0.74526853874909915</v>
+        <v>0.83205654855852396</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700">
-        <v>0.59378731865524026</v>
+        <v>0.65041172430238725</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701">
-        <v>0.66121802777077243</v>
+        <v>0.48761929301392681</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702">
-        <v>0.83116303532008529</v>
+        <v>0.59400383160785863</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703">
-        <v>0.60015198043910467</v>
+        <v>0.68942060581848885</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A704">
-        <v>0.31225349499487248</v>
+        <v>0.67272185755968206</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A705">
-        <v>0.66010842097999123</v>
+        <v>0.69703834114921626</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A706">
-        <v>0.15836322997973479</v>
+        <v>0.70205507353248131</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A707">
-        <v>0.67595798647095684</v>
+        <v>0.58248890256997232</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A708">
-        <v>0.60100212768797745</v>
+        <v>0.58437839272117509</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A709">
-        <v>0.83116062929068579</v>
+        <v>0.83589769354399324</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710">
-        <v>0.66285000516787429</v>
+        <v>0.65978476368843264</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A711">
-        <v>0.57539734899577533</v>
+        <v>5.8723801924741907E-2</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A712">
-        <v>0.69386644573036782</v>
+        <v>0.60313627452705276</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A713">
-        <v>0.60411230610958455</v>
+        <v>0.81177102699962467</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A714">
-        <v>0.73919179600798346</v>
+        <v>0.77648111570270695</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A715">
-        <v>0.62500281217877829</v>
+        <v>0.61049912277401042</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A716">
-        <v>0.82383617928008801</v>
+        <v>0.60670811327673002</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717">
-        <v>0.83178252020635202</v>
+        <v>0.57920985998269603</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A718">
-        <v>0.36121646740047753</v>
+        <v>0.66307456441484591</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A719">
-        <v>0.7103809958685412</v>
+        <v>0.72999269731345673</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720">
-        <v>0.66764662158057531</v>
+        <v>0.36385793689193191</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A721">
-        <v>0.36410289843746191</v>
+        <v>0.63454941032243628</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A722">
-        <v>0.83205654855852396</v>
+        <v>0.74919599896350464</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A723">
-        <v>0.65041172430238725</v>
+        <v>0.6604739137256983</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A724">
-        <v>0.48761929301392681</v>
+        <v>0.6937725666398229</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A725">
-        <v>0.59400383160785863</v>
+        <v>0.64563714204763389</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A726">
-        <v>0.68942060581848885</v>
+        <v>0.6211107081815348</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A727">
-        <v>0.67272185755968206</v>
+        <v>0.70376084796324656</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A728">
-        <v>0.69703834114921626</v>
+        <v>0.60729977944965063</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A729">
-        <v>0.70205507353248131</v>
+        <v>0.58518180030082778</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A730">
-        <v>0.58248890256997232</v>
+        <v>0.76931753878705411</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A731">
-        <v>0.58437839272117509</v>
+        <v>0.71062504690180028</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A732">
-        <v>0.83589769354399324</v>
+        <v>0.80322783106260165</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A733">
-        <v>0.65978476368843264</v>
+        <v>0.61698779095943368</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A734">
-        <v>5.8723801924741907E-2</v>
+        <v>0.61369260988248697</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A735">
-        <v>0.60313627452705276</v>
+        <v>0.6741142855966713</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A736">
-        <v>0.81177102699962467</v>
+        <v>0.84951455898334249</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A737">
-        <v>0.77648111570270695</v>
+        <v>0.63370686059897952</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738">
-        <v>0.61049912277401042</v>
+        <v>0.59126874669382001</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A739">
-        <v>0.60670811327673002</v>
+        <v>0.6065342342680351</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A740">
-        <v>0.57920985998269603</v>
+        <v>0.45863725178818171</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A741">
-        <v>0.66307456441484591</v>
+        <v>0.6420478082590908</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A742">
-        <v>0.72999269731345673</v>
+        <v>0.65471202935511663</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A743">
-        <v>0.36385793689193191</v>
+        <v>0.20418770573024481</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A744">
-        <v>0.63454941032243628</v>
+        <v>0.53537335429162392</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745">
-        <v>0.74919599896350464</v>
+        <v>0.65267082287227673</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A746">
-        <v>0.6604739137256983</v>
+        <v>0.63309853260161786</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A747">
-        <v>0.6937725666398229</v>
+        <v>0.57674985225563657</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A748">
-        <v>0.64563714204763389</v>
+        <v>0.68921597918093136</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A749">
-        <v>0.6211107081815348</v>
+        <v>0.63806967400394088</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A750">
-        <v>0.70376084796324656</v>
+        <v>0.37368138695737291</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A751">
-        <v>0.60729977944965063</v>
+        <v>0.66528498891953713</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A752">
-        <v>0.58518180030082778</v>
+        <v>0.83633788884968008</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A753">
-        <v>0.76931753878705411</v>
+        <v>0.57656080691666656</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A754">
-        <v>0.71062504690180028</v>
+        <v>0.61357530835709717</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A755">
-        <v>0.80322783106260165</v>
+        <v>0.59419982688372008</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A756">
-        <v>0.61698779095943368</v>
+        <v>0.22932641094906719</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A757">
-        <v>0.61369260988248697</v>
+        <v>0.60833167089518903</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A758">
-        <v>0.6741142855966713</v>
+        <v>0.75805440071244545</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A759">
-        <v>0.84951455898334249</v>
+        <v>0.1972142311969429</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A760">
-        <v>0.63370686059897952</v>
+        <v>0.16257137920644371</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A761">
-        <v>0.59126874669382001</v>
+        <v>0.80379545153099874</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A762">
-        <v>0.6065342342680351</v>
+        <v>0.66293735638379436</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A763">
-        <v>0.45863725178818171</v>
+        <v>0.66250790037230001</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A764">
-        <v>0.6420478082590908</v>
+        <v>0.77651106334821951</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A765">
-        <v>0.65471202935511663</v>
+        <v>0.55380728475978702</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A766">
-        <v>0.20418770573024481</v>
+        <v>0.1351162881593522</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A767">
-        <v>0.53537335429162392</v>
+        <v>0.327067235002651</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A768">
-        <v>0.65267082287227673</v>
+        <v>0.22425868533633461</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A769">
-        <v>0.63309853260161786</v>
+        <v>0.19930820449557479</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A770">
-        <v>0.57674985225563657</v>
+        <v>0.26399867515629938</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A771">
-        <v>0.68921597918093136</v>
+        <v>0.42599781642122142</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772">
-        <v>0.63806967400394088</v>
+        <v>0.37481752941746072</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773">
-        <v>0.37368138695737291</v>
+        <v>0.85454726721763485</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774">
-        <v>0.66528498891953713</v>
+        <v>0.60358214799940857</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A775">
-        <v>0.83633788884968008</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A776">
-        <v>0.57656080691666656</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A777">
-        <v>0.61357530835709717</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A778">
-        <v>0.59419982688372008</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A779">
-        <v>0.22932641094906719</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A780">
-        <v>0.60833167089518903</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A781">
-        <v>0.75805440071244545</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A782">
-        <v>0.1972142311969429</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A783">
-        <v>0.16257137920644371</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A784">
-        <v>0.80379545153099874</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A785">
-        <v>0.66293735638379436</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A786">
-        <v>0.66250790037230001</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A787">
-        <v>0.77651106334821951</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A788">
-        <v>0.55380728475978702</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A789">
-        <v>0.1351162881593522</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A790">
-        <v>0.327067235002651</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A791">
-        <v>0.22425868533633461</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A792">
-        <v>0.19930820449557479</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A793">
-        <v>0.26399867515629938</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A794">
-        <v>0.42599781642122142</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A795">
-        <v>0.37481752941746072</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A796">
-        <v>0.85454726721763485</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A797">
-        <v>0.60358214799940857</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A798">
         <v>0.79536141224902612</v>
       </c>
     </row>
